--- a/election_votar_data/LOHAGARA/CHUNATI/152615/152615_com_1693_male_without_photo_95_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152615/152615_com_1693_male_without_photo_95_2025-11-24.xlsx
@@ -38281,7 +38281,7 @@
       </c>
       <c r="F901" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/জন্ম তারিখ: ০১/১২/২০০২</t>
+          <t>ছাত্র</t>
         </is>
       </c>
       <c r="G901" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152615/152615_com_1693_male_without_photo_95_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152615/152615_com_1693_male_without_photo_95_2025-11-24.xlsx
@@ -38281,7 +38281,7 @@
       </c>
       <c r="F901" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র</t>
+          <t>ছাত্র/জন্ম তারিখ: ০১/১২/২০০২</t>
         </is>
       </c>
       <c r="G901" s="3" t="inlineStr">
